--- a/VantagepointTestingFramework/Main.rvl.xlsx
+++ b/VantagepointTestingFramework/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="47">
   <si>
     <t>Flow</t>
   </si>
@@ -1221,7 +1221,7 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
